--- a/Saves/F2V_Cal20171203.xlsx
+++ b/Saves/F2V_Cal20171203.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Freq, Hz</t>
   </si>
@@ -75,24 +75,6 @@
   </si>
   <si>
     <t>dropout, vrms</t>
-  </si>
-  <si>
-    <t>ltspice</t>
-  </si>
-  <si>
-    <t>lm2917</t>
-  </si>
-  <si>
-    <t>scales</t>
-  </si>
-  <si>
-    <t>lm2907</t>
-  </si>
-  <si>
-    <t>volts</t>
-  </si>
-  <si>
-    <t>should compensate with measured voltage level</t>
   </si>
 </sst>
 </file>
@@ -202,6 +184,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1032,11 +1015,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="657421904"/>
-        <c:axId val="657422296"/>
+        <c:axId val="207832312"/>
+        <c:axId val="207835056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="657421904"/>
+        <c:axId val="207832312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1082,6 +1065,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1115,12 +1099,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="657422296"/>
+        <c:crossAx val="207835056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="657422296"/>
+        <c:axId val="207835056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1177,7 +1161,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="657421904"/>
+        <c:crossAx val="207832312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1191,6 +1175,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1467,11 +1452,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="657423080"/>
-        <c:axId val="657420728"/>
+        <c:axId val="202932144"/>
+        <c:axId val="202934104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="657423080"/>
+        <c:axId val="202932144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1588,12 +1573,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="657420728"/>
+        <c:crossAx val="202934104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="657420728"/>
+        <c:axId val="202934104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1706,7 +1691,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="657423080"/>
+        <c:crossAx val="202932144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2582,8 +2567,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="656349576"/>
-        <c:axId val="656351928"/>
+        <c:axId val="202932928"/>
+        <c:axId val="202934496"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -2694,7 +2679,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="656349576"/>
+        <c:axId val="202932928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2812,12 +2797,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="656351928"/>
+        <c:crossAx val="202934496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="656351928"/>
+        <c:axId val="202934496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2937,7 +2922,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="656349576"/>
+        <c:crossAx val="202932928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5076,10 +5061,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X24"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5093,7 +5078,7 @@
     <col min="14" max="14" width="6" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5134,7 +5119,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>150</v>
       </c>
@@ -5176,7 +5161,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>200</v>
       </c>
@@ -5216,7 +5201,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>300</v>
       </c>
@@ -5256,7 +5241,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>400</v>
       </c>
@@ -5298,7 +5283,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>450</v>
       </c>
@@ -5338,7 +5323,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>500</v>
       </c>
@@ -5378,7 +5363,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>550</v>
       </c>
@@ -5418,7 +5403,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>600</v>
       </c>
@@ -5460,7 +5445,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>650</v>
       </c>
@@ -5500,27 +5485,15 @@
         <v>39000</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="M11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="M12" s="1"/>
       <c r="O12" s="1"/>
-      <c r="R12" t="s">
-        <v>17</v>
-      </c>
-      <c r="T12" t="s">
-        <v>18</v>
-      </c>
-      <c r="U12" t="s">
-        <v>19</v>
-      </c>
-      <c r="V12" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
@@ -5551,11 +5524,8 @@
       <c r="L13" s="2"/>
       <c r="M13" s="1"/>
       <c r="O13" s="1"/>
-      <c r="R13" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
@@ -5586,20 +5556,8 @@
       <c r="L14" s="2"/>
       <c r="M14" s="1"/>
       <c r="O14" s="1"/>
-      <c r="R14">
-        <v>5</v>
-      </c>
-      <c r="S14">
-        <v>650</v>
-      </c>
-      <c r="T14">
-        <v>3.19</v>
-      </c>
-      <c r="V14">
-        <v>3.1880000000000002</v>
-      </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
@@ -5630,46 +5588,12 @@
       <c r="L15" s="2"/>
       <c r="M15" s="1"/>
       <c r="O15" s="1"/>
-      <c r="R15">
-        <v>6</v>
-      </c>
-      <c r="T15">
-        <v>3.85</v>
-      </c>
-      <c r="U15">
-        <f>$T$14*R15/$R$14</f>
-        <v>3.8280000000000003</v>
-      </c>
-      <c r="V15">
-        <v>3.84</v>
-      </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="M16" s="1"/>
       <c r="O16" s="1"/>
-      <c r="R16">
-        <v>15</v>
-      </c>
-      <c r="T16">
-        <v>4.93</v>
-      </c>
-      <c r="U16">
-        <f>$T$14*R16/$R$14</f>
-        <v>9.57</v>
-      </c>
-      <c r="V16">
-        <v>9.7040000000000006</v>
-      </c>
-      <c r="W16">
-        <f>T16/T14</f>
-        <v>1.5454545454545454</v>
-      </c>
-      <c r="X16">
-        <f>R14*W16</f>
-        <v>7.7272727272727266</v>
-      </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>150</v>
       </c>
@@ -5687,44 +5611,32 @@
       </c>
       <c r="M17" s="1"/>
       <c r="O17" s="1"/>
-      <c r="R17">
-        <v>7.8</v>
-      </c>
-      <c r="T17">
-        <v>4.78</v>
-      </c>
-      <c r="V17">
-        <v>5.05</v>
-      </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="M18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="M19" s="1"/>
       <c r="O19" s="1"/>
-      <c r="U19" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="M20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="M21" s="1"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="M22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="M23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F24"/>
       <c r="G24"/>
       <c r="H24"/>

--- a/Saves/F2V_Cal20171203.xlsx
+++ b/Saves/F2V_Cal20171203.xlsx
@@ -184,7 +184,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1002,6 +1001,33 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.69699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3919999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8540000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.76</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.99</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1015,11 +1041,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="207832312"/>
-        <c:axId val="207835056"/>
+        <c:axId val="311707216"/>
+        <c:axId val="311705648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="207832312"/>
+        <c:axId val="311707216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1065,7 +1091,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1099,12 +1124,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="207835056"/>
+        <c:crossAx val="311705648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="207835056"/>
+        <c:axId val="311705648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1161,7 +1186,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207832312"/>
+        <c:crossAx val="311707216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1175,7 +1200,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1452,11 +1476,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="202932144"/>
-        <c:axId val="202934104"/>
+        <c:axId val="311700552"/>
+        <c:axId val="311708000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="202932144"/>
+        <c:axId val="311700552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1573,12 +1597,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202934104"/>
+        <c:crossAx val="311708000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="202934104"/>
+        <c:axId val="311708000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1691,7 +1715,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202932144"/>
+        <c:crossAx val="311700552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2554,6 +2578,33 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.69699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3919999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8540000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.76</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.99</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2567,8 +2618,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="202932928"/>
-        <c:axId val="202934496"/>
+        <c:axId val="311701728"/>
+        <c:axId val="311702120"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -2679,7 +2730,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="202932928"/>
+        <c:axId val="311701728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2797,12 +2848,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202934496"/>
+        <c:crossAx val="311702120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="202934496"/>
+        <c:axId val="311702120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2922,7 +2973,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202932928"/>
+        <c:crossAx val="311701728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5063,8 +5114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5073,8 +5124,7 @@
     <col min="2" max="2" width="11.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="12" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5156,6 +5206,9 @@
       <c r="K2" s="1">
         <v>0.70699999999999996</v>
       </c>
+      <c r="L2" s="1">
+        <v>0.69699999999999995</v>
+      </c>
       <c r="N2" s="1">
         <f>A2*60</f>
         <v>9000</v>
@@ -5196,6 +5249,9 @@
       <c r="K3" s="1">
         <v>0.94199999999999995</v>
       </c>
+      <c r="L3" s="1">
+        <v>0.93</v>
+      </c>
       <c r="N3" s="1">
         <f t="shared" ref="N3:N10" si="3">A3*60</f>
         <v>12000</v>
@@ -5236,6 +5292,9 @@
       <c r="K4" s="1">
         <v>1.409</v>
       </c>
+      <c r="L4" s="1">
+        <v>1.3919999999999999</v>
+      </c>
       <c r="N4" s="1">
         <f t="shared" si="3"/>
         <v>18000</v>
@@ -5278,6 +5337,9 @@
       <c r="K5" s="1">
         <v>1.8720000000000001</v>
       </c>
+      <c r="L5" s="1">
+        <v>1.8540000000000001</v>
+      </c>
       <c r="N5" s="1">
         <f t="shared" si="3"/>
         <v>24000</v>
@@ -5318,6 +5380,9 @@
       <c r="K6" s="1">
         <v>2.1</v>
       </c>
+      <c r="L6" s="1">
+        <v>2.08</v>
+      </c>
       <c r="N6" s="1">
         <f t="shared" si="3"/>
         <v>27000</v>
@@ -5358,6 +5423,9 @@
       <c r="K7" s="1">
         <v>2.33</v>
       </c>
+      <c r="L7" s="1">
+        <v>2.31</v>
+      </c>
       <c r="N7" s="1">
         <f t="shared" si="3"/>
         <v>30000</v>
@@ -5398,6 +5466,9 @@
       <c r="K8" s="1">
         <v>2.5499999999999998</v>
       </c>
+      <c r="L8" s="1">
+        <v>2.5299999999999998</v>
+      </c>
       <c r="N8" s="1">
         <f t="shared" si="3"/>
         <v>33000</v>
@@ -5440,6 +5511,9 @@
       <c r="K9" s="1">
         <v>2.78</v>
       </c>
+      <c r="L9" s="1">
+        <v>2.76</v>
+      </c>
       <c r="N9" s="1">
         <f t="shared" si="3"/>
         <v>36000</v>
@@ -5479,6 +5553,9 @@
       </c>
       <c r="K10" s="1">
         <v>3.01</v>
+      </c>
+      <c r="L10" s="1">
+        <v>2.99</v>
       </c>
       <c r="N10" s="1">
         <f t="shared" si="3"/>
@@ -5521,7 +5598,10 @@
         <f>INDEX(LINEST($N$2:$N$10,K$2:K$10^{1,2},FALSE,FALSE),3)</f>
         <v>0</v>
       </c>
-      <c r="L13" s="2"/>
+      <c r="L13" s="2">
+        <f>INDEX(LINEST($N$2:$N$10,L$2:L$10^{1,2},FALSE,FALSE),3)</f>
+        <v>0</v>
+      </c>
       <c r="M13" s="1"/>
       <c r="O13" s="1"/>
     </row>
@@ -5553,7 +5633,10 @@
         <f>INDEX(LINEST($N$2:$N$10,K$2:K$10^{1,2},FALSE,FALSE),2)</f>
         <v>12617.500101766993</v>
       </c>
-      <c r="L14" s="2"/>
+      <c r="L14" s="2">
+        <f>INDEX(LINEST($N$2:$N$10,L$2:L$10^{1,2},FALSE,FALSE),2)</f>
+        <v>12823.610983634353</v>
+      </c>
       <c r="M14" s="1"/>
       <c r="O14" s="1"/>
     </row>
@@ -5585,7 +5668,10 @@
         <f>INDEX(LINEST($N$2:$N$10,K$2:K$10^{1,2},FALSE,FALSE),1)</f>
         <v>116.48400617638146</v>
       </c>
-      <c r="L15" s="2"/>
+      <c r="L15" s="2">
+        <f>INDEX(LINEST($N$2:$N$10,L$2:L$10^{1,2},FALSE,FALSE),1)</f>
+        <v>76.837737425544248</v>
+      </c>
       <c r="M15" s="1"/>
       <c r="O15" s="1"/>
     </row>
@@ -5608,6 +5694,9 @@
       </c>
       <c r="J17" s="1">
         <v>0.05</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0.04</v>
       </c>
       <c r="M17" s="1"/>
       <c r="O17" s="1"/>

--- a/Saves/F2V_Cal20171203.xlsx
+++ b/Saves/F2V_Cal20171203.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Freq, Hz</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>dropout, vrms</t>
+  </si>
+  <si>
+    <t>SN7</t>
   </si>
 </sst>
 </file>
@@ -1041,11 +1044,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="311707216"/>
-        <c:axId val="311705648"/>
+        <c:axId val="307598848"/>
+        <c:axId val="125457984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="311707216"/>
+        <c:axId val="307598848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1124,12 +1127,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="311705648"/>
+        <c:crossAx val="125457984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="311705648"/>
+        <c:axId val="125457984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1186,7 +1189,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="311707216"/>
+        <c:crossAx val="307598848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1476,11 +1479,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="311700552"/>
-        <c:axId val="311708000"/>
+        <c:axId val="124445368"/>
+        <c:axId val="124446152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="311700552"/>
+        <c:axId val="124445368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1597,12 +1600,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="311708000"/>
+        <c:crossAx val="124446152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="311708000"/>
+        <c:axId val="124446152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1715,7 +1718,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="311700552"/>
+        <c:crossAx val="124445368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2618,8 +2621,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="311701728"/>
-        <c:axId val="311702120"/>
+        <c:axId val="124446544"/>
+        <c:axId val="124447328"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -2637,6 +2640,9 @@
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>SN7</c:v>
+                      </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
@@ -2720,6 +2726,33 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>0.70299999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.93799999999999994</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.405</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.8680000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2.09</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2.33</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2.5499999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2.78</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>3.01</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:yVal>
@@ -2730,7 +2763,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="311701728"/>
+        <c:axId val="124446544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2848,12 +2881,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="311702120"/>
+        <c:crossAx val="124447328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="311702120"/>
+        <c:axId val="124447328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2973,7 +3006,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="311701728"/>
+        <c:crossAx val="124446544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5115,7 +5148,7 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5165,6 +5198,9 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
@@ -5209,6 +5245,9 @@
       <c r="L2" s="1">
         <v>0.69699999999999995</v>
       </c>
+      <c r="M2" s="1">
+        <v>0.70299999999999996</v>
+      </c>
       <c r="N2" s="1">
         <f>A2*60</f>
         <v>9000</v>
@@ -5252,6 +5291,9 @@
       <c r="L3" s="1">
         <v>0.93</v>
       </c>
+      <c r="M3" s="1">
+        <v>0.93799999999999994</v>
+      </c>
       <c r="N3" s="1">
         <f t="shared" ref="N3:N10" si="3">A3*60</f>
         <v>12000</v>
@@ -5295,6 +5337,9 @@
       <c r="L4" s="1">
         <v>1.3919999999999999</v>
       </c>
+      <c r="M4" s="1">
+        <v>1.405</v>
+      </c>
       <c r="N4" s="1">
         <f t="shared" si="3"/>
         <v>18000</v>
@@ -5340,6 +5385,9 @@
       <c r="L5" s="1">
         <v>1.8540000000000001</v>
       </c>
+      <c r="M5" s="1">
+        <v>1.8680000000000001</v>
+      </c>
       <c r="N5" s="1">
         <f t="shared" si="3"/>
         <v>24000</v>
@@ -5383,6 +5431,9 @@
       <c r="L6" s="1">
         <v>2.08</v>
       </c>
+      <c r="M6" s="1">
+        <v>2.09</v>
+      </c>
       <c r="N6" s="1">
         <f t="shared" si="3"/>
         <v>27000</v>
@@ -5426,6 +5477,9 @@
       <c r="L7" s="1">
         <v>2.31</v>
       </c>
+      <c r="M7" s="1">
+        <v>2.33</v>
+      </c>
       <c r="N7" s="1">
         <f t="shared" si="3"/>
         <v>30000</v>
@@ -5469,6 +5523,9 @@
       <c r="L8" s="1">
         <v>2.5299999999999998</v>
       </c>
+      <c r="M8" s="1">
+        <v>2.5499999999999998</v>
+      </c>
       <c r="N8" s="1">
         <f t="shared" si="3"/>
         <v>33000</v>
@@ -5514,6 +5571,9 @@
       <c r="L9" s="1">
         <v>2.76</v>
       </c>
+      <c r="M9" s="1">
+        <v>2.78</v>
+      </c>
       <c r="N9" s="1">
         <f t="shared" si="3"/>
         <v>36000</v>
@@ -5556,6 +5616,9 @@
       </c>
       <c r="L10" s="1">
         <v>2.99</v>
+      </c>
+      <c r="M10" s="1">
+        <v>3.01</v>
       </c>
       <c r="N10" s="1">
         <f t="shared" si="3"/>
@@ -5602,7 +5665,10 @@
         <f>INDEX(LINEST($N$2:$N$10,L$2:L$10^{1,2},FALSE,FALSE),3)</f>
         <v>0</v>
       </c>
-      <c r="M13" s="1"/>
+      <c r="M13" s="2">
+        <f>INDEX(LINEST($N$2:$N$10,M$2:M$10^{1,2},FALSE,FALSE),3)</f>
+        <v>0</v>
+      </c>
       <c r="O13" s="1"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -5637,7 +5703,10 @@
         <f>INDEX(LINEST($N$2:$N$10,L$2:L$10^{1,2},FALSE,FALSE),2)</f>
         <v>12823.610983634353</v>
       </c>
-      <c r="M14" s="1"/>
+      <c r="M14" s="2">
+        <f>INDEX(LINEST($N$2:$N$10,M$2:M$10^{1,2},FALSE,FALSE),2)</f>
+        <v>12709.700509362918</v>
+      </c>
       <c r="O14" s="1"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -5672,11 +5741,16 @@
         <f>INDEX(LINEST($N$2:$N$10,L$2:L$10^{1,2},FALSE,FALSE),1)</f>
         <v>76.837737425544248</v>
       </c>
-      <c r="M15" s="1"/>
+      <c r="M15" s="2">
+        <f>INDEX(LINEST($N$2:$N$10,M$2:M$10^{1,2},FALSE,FALSE),1)</f>
+        <v>84.174995967615558</v>
+      </c>
       <c r="O15" s="1"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="M16" s="1"/>
+      <c r="M16" s="1">
+        <v>5.12</v>
+      </c>
       <c r="O16" s="1"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
@@ -5698,7 +5772,9 @@
       <c r="L17" s="1">
         <v>0.04</v>
       </c>
-      <c r="M17" s="1"/>
+      <c r="M17" s="1">
+        <v>0.05</v>
+      </c>
       <c r="O17" s="1"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">

--- a/Saves/F2V_Cal20171203.xlsx
+++ b/Saves/F2V_Cal20171203.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Freq, Hz</t>
   </si>
@@ -78,6 +78,27 @@
   </si>
   <si>
     <t>SN7</t>
+  </si>
+  <si>
+    <t>at V</t>
+  </si>
+  <si>
+    <t>SN5?</t>
+  </si>
+  <si>
+    <t>SN6?</t>
+  </si>
+  <si>
+    <t>SN1?</t>
+  </si>
+  <si>
+    <t>SN3?</t>
+  </si>
+  <si>
+    <t>SN4?</t>
+  </si>
+  <si>
+    <t>SN0?</t>
   </si>
 </sst>
 </file>
@@ -231,7 +252,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SN0</c:v>
+                  <c:v>SN0?</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -343,7 +364,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SN1</c:v>
+                  <c:v>SN1?</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -573,7 +594,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SN3</c:v>
+                  <c:v>SN3?</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -691,7 +712,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SN4</c:v>
+                  <c:v>SN4?</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -809,7 +830,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SN5</c:v>
+                  <c:v>SN5?</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -927,7 +948,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SN6</c:v>
+                  <c:v>SN6?</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1044,11 +1065,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="307598848"/>
-        <c:axId val="125457984"/>
+        <c:axId val="586187240"/>
+        <c:axId val="586187632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="307598848"/>
+        <c:axId val="586187240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1127,12 +1148,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125457984"/>
+        <c:crossAx val="586187632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="125457984"/>
+        <c:axId val="586187632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1189,7 +1210,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307598848"/>
+        <c:crossAx val="586187240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1479,11 +1500,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="124445368"/>
-        <c:axId val="124446152"/>
+        <c:axId val="586189592"/>
+        <c:axId val="576880064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="124445368"/>
+        <c:axId val="586189592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1600,12 +1621,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124446152"/>
+        <c:crossAx val="576880064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="124446152"/>
+        <c:axId val="576880064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1718,7 +1739,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124445368"/>
+        <c:crossAx val="586189592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1852,7 +1873,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SN0</c:v>
+                  <c:v>SN0?</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1960,7 +1981,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SN1</c:v>
+                  <c:v>SN1?</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2178,7 +2199,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SN3</c:v>
+                  <c:v>SN3?</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2288,7 +2309,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SN4</c:v>
+                  <c:v>SN4?</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2398,7 +2419,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SN5</c:v>
+                  <c:v>SN5?</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2508,7 +2529,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SN6</c:v>
+                  <c:v>SN6?</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2621,8 +2642,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="124446544"/>
-        <c:axId val="124447328"/>
+        <c:axId val="576879672"/>
+        <c:axId val="576881632"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -2763,7 +2784,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="124446544"/>
+        <c:axId val="576879672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2881,12 +2902,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124447328"/>
+        <c:crossAx val="576881632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="124447328"/>
+        <c:axId val="576881632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3006,7 +3027,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124446544"/>
+        <c:crossAx val="576879672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4799,13 +4820,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4829,13 +4850,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5145,10 +5166,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5161,7 +5182,7 @@
     <col min="14" max="14" width="6" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5178,25 +5199,25 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>17</v>
@@ -5204,8 +5225,26 @@
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>150</v>
       </c>
@@ -5252,8 +5291,26 @@
         <f>A2*60</f>
         <v>9000</v>
       </c>
+      <c r="O2" s="1">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0.64500000000000002</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>200</v>
       </c>
@@ -5298,8 +5355,26 @@
         <f t="shared" ref="N3:N10" si="3">A3*60</f>
         <v>12000</v>
       </c>
+      <c r="O3" s="1">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0.86099999999999999</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>300</v>
       </c>
@@ -5344,8 +5419,26 @@
         <f t="shared" si="3"/>
         <v>18000</v>
       </c>
+      <c r="O4" s="1">
+        <v>1.2649999999999999</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1.27</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1.32</v>
+      </c>
+      <c r="R4" s="1">
+        <v>1.2929999999999999</v>
+      </c>
+      <c r="S4" s="1">
+        <v>1.3240000000000001</v>
+      </c>
+      <c r="T4" s="1">
+        <v>1.2889999999999999</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>400</v>
       </c>
@@ -5392,8 +5485,26 @@
         <f t="shared" si="3"/>
         <v>24000</v>
       </c>
+      <c r="O5" s="1">
+        <v>1.6719999999999999</v>
+      </c>
+      <c r="P5" s="1">
+        <v>1.6890000000000001</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>1.76</v>
+      </c>
+      <c r="R5" s="1">
+        <v>1.72</v>
+      </c>
+      <c r="S5" s="1">
+        <v>1.76</v>
+      </c>
+      <c r="T5" s="1">
+        <v>1.71</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>450</v>
       </c>
@@ -5438,8 +5549,26 @@
         <f t="shared" si="3"/>
         <v>27000</v>
       </c>
+      <c r="O6" s="1">
+        <v>1.8779999999999999</v>
+      </c>
+      <c r="P6" s="1">
+        <v>1.8939999999999999</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>1.96</v>
+      </c>
+      <c r="R6" s="1">
+        <v>1.92</v>
+      </c>
+      <c r="S6" s="1">
+        <v>1.97</v>
+      </c>
+      <c r="T6" s="1">
+        <v>1.91</v>
+      </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>500</v>
       </c>
@@ -5484,8 +5613,26 @@
         <f t="shared" si="3"/>
         <v>30000</v>
       </c>
+      <c r="O7" s="1">
+        <v>2.08</v>
+      </c>
+      <c r="P7" s="1">
+        <v>2.09</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="R7" s="1">
+        <v>2.13</v>
+      </c>
+      <c r="S7" s="1">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="T7" s="1">
+        <v>2.12</v>
+      </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>550</v>
       </c>
@@ -5530,8 +5677,26 @@
         <f t="shared" si="3"/>
         <v>33000</v>
       </c>
+      <c r="O8" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="P8" s="1">
+        <v>2.27</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>2.37</v>
+      </c>
+      <c r="R8" s="1">
+        <v>2.33</v>
+      </c>
+      <c r="S8" s="1">
+        <v>2.38</v>
+      </c>
+      <c r="T8" s="1">
+        <v>2.2999999999999998</v>
+      </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>600</v>
       </c>
@@ -5578,8 +5743,26 @@
         <f t="shared" si="3"/>
         <v>36000</v>
       </c>
+      <c r="O9" s="1">
+        <v>2.44</v>
+      </c>
+      <c r="P9" s="1">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>2.59</v>
+      </c>
+      <c r="R9" s="1">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="S9" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="T9" s="1">
+        <v>2.5099999999999998</v>
+      </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>650</v>
       </c>
@@ -5624,161 +5807,199 @@
         <f t="shared" si="3"/>
         <v>39000</v>
       </c>
+      <c r="O10" s="1">
+        <v>2.63</v>
+      </c>
+      <c r="P10" s="1">
+        <v>2.67</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>2.77</v>
+      </c>
+      <c r="R10" s="1">
+        <v>2.69</v>
+      </c>
+      <c r="S10" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="T10" s="1">
+        <v>2.7</v>
+      </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="M11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="M12" s="1"/>
-      <c r="O12" s="1"/>
+      <c r="O12" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="P12" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="Q12">
+        <v>4.8</v>
+      </c>
+      <c r="R12" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="S12" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="T12" s="1">
+        <v>4.8</v>
+      </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="M13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F14" s="2">
         <f>INDEX(LINEST($N$2:$N$10,F$2:F$10^{1,2},FALSE,FALSE),3)</f>
         <v>0</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G14" s="2">
         <f>INDEX(LINEST($N$2:$N$10,G$2:G$10^{1,2},FALSE,FALSE),3)</f>
         <v>0</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H14" s="2">
         <f>INDEX(LINEST($N$2:$N$10,H$2:H$10^{1,2},FALSE,FALSE),3)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I14" s="2">
         <f>INDEX(LINEST($N$2:$N$10,I$2:I$10^{1,2},FALSE,FALSE),3)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J14" s="2">
         <f>INDEX(LINEST($N$2:$N$10,J$2:J$10^{1,2},FALSE,FALSE),3)</f>
         <v>0</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K14" s="2">
         <f>INDEX(LINEST($N$2:$N$10,K$2:K$10^{1,2},FALSE,FALSE),3)</f>
         <v>0</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L14" s="2">
         <f>INDEX(LINEST($N$2:$N$10,L$2:L$10^{1,2},FALSE,FALSE),3)</f>
         <v>0</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M14" s="2">
         <f>INDEX(LINEST($N$2:$N$10,M$2:M$10^{1,2},FALSE,FALSE),3)</f>
         <v>0</v>
       </c>
-      <c r="O13" s="1"/>
+      <c r="O14" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F15" s="2">
         <f>INDEX(LINEST($N$2:$N$10,F$2:F$10^{1,2},FALSE,FALSE),2)</f>
         <v>12431.186295899019</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G15" s="2">
         <f>INDEX(LINEST($N$2:$N$10,G$2:G$10^{1,2},FALSE,FALSE),2)</f>
         <v>12276.075278443672</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H15" s="2">
         <f>INDEX(LINEST($N$2:$N$10,H$2:H$10^{1,2},FALSE,FALSE),2)</f>
         <v>12913.980695566312</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I15" s="2">
         <f>INDEX(LINEST($N$2:$N$10,I$2:I$10^{1,2},FALSE,FALSE),2)</f>
         <v>12700.548566313257</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J15" s="2">
         <f>INDEX(LINEST($N$2:$N$10,J$2:J$10^{1,2},FALSE,FALSE),2)</f>
         <v>12477.470633810395</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K15" s="2">
         <f>INDEX(LINEST($N$2:$N$10,K$2:K$10^{1,2},FALSE,FALSE),2)</f>
         <v>12617.500101766993</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L15" s="2">
         <f>INDEX(LINEST($N$2:$N$10,L$2:L$10^{1,2},FALSE,FALSE),2)</f>
         <v>12823.610983634353</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M15" s="2">
         <f>INDEX(LINEST($N$2:$N$10,M$2:M$10^{1,2},FALSE,FALSE),2)</f>
         <v>12709.700509362918</v>
       </c>
-      <c r="O14" s="1"/>
+      <c r="O15" s="1"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F16" s="2">
         <f>INDEX(LINEST($N$2:$N$10,F$2:F$10^{1,2},FALSE,FALSE),1)</f>
         <v>117.63799258533811</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G16" s="2">
         <f>INDEX(LINEST($N$2:$N$10,G$2:G$10^{1,2},FALSE,FALSE),1)</f>
         <v>76.042553979691533</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H16" s="2">
         <f>INDEX(LINEST($N$2:$N$10,H$2:H$10^{1,2},FALSE,FALSE),1)</f>
         <v>86.515992795181035</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I16" s="2">
         <f>INDEX(LINEST($N$2:$N$10,I$2:I$10^{1,2},FALSE,FALSE),1)</f>
         <v>116.2825951519487</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J16" s="2">
         <f>INDEX(LINEST($N$2:$N$10,J$2:J$10^{1,2},FALSE,FALSE),1)</f>
         <v>101.82059256467288</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K16" s="2">
         <f>INDEX(LINEST($N$2:$N$10,K$2:K$10^{1,2},FALSE,FALSE),1)</f>
         <v>116.48400617638146</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L16" s="2">
         <f>INDEX(LINEST($N$2:$N$10,L$2:L$10^{1,2},FALSE,FALSE),1)</f>
         <v>76.837737425544248</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M16" s="2">
         <f>INDEX(LINEST($N$2:$N$10,M$2:M$10^{1,2},FALSE,FALSE),1)</f>
         <v>84.174995967615558</v>
-      </c>
-      <c r="O15" s="1"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="M16" s="1">
-        <v>5.12</v>
       </c>
       <c r="O16" s="1"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>150</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="L17" s="1">
-        <v>0.04</v>
-      </c>
       <c r="M17" s="1">
-        <v>0.05</v>
+        <v>5.12</v>
       </c>
       <c r="O17" s="1"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="M18" s="1"/>
+      <c r="A18" s="1">
+        <v>150</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0.05</v>
+      </c>
       <c r="O18" s="1"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
@@ -5802,13 +6023,17 @@
       <c r="O23" s="1"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
+      <c r="M24" s="1"/>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
